--- a/biology/Botanique/Liste_des_espèces_du_genre_Crepidium/Liste_des_espèces_du_genre_Crepidium.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Crepidium/Liste_des_espèces_du_genre_Crepidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article liste les espèces d'orchidées du genre Crepidium Blume (1825). 292 espèces sont acceptées dans ce genre.
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Crepidium acuminatum
 Crepidium alagense
@@ -565,7 +579,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -583,7 +597,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Crepidium bahanense
 Crepidium balabacense
@@ -611,7 +627,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,7 +645,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Crepidium calcareum
 Crepidium calcicola
@@ -670,7 +688,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -688,7 +706,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Crepidium damusicum
 Crepidium davaensis
@@ -709,7 +729,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +747,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Crepidium elegans
 Crepidium elmeri
@@ -743,7 +765,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -761,9 +783,11 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Crepidium falcifolium[1]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Crepidium falcifolium
 Crepidium fasciatum
 Crepidium fimbriatum
 Crepidium finetii
@@ -785,7 +809,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -803,7 +827,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Crepidium gibbsiae
 Crepidium godefroyi
@@ -821,7 +847,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -839,7 +865,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Crepidium hahajimense
 Crepidium hainanense
@@ -861,7 +889,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,7 +907,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Crepidium imthurnii
 Crepidium incurviforceps
@@ -897,7 +927,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +945,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Crepidium josephianum
 Crepidium junghuhnii</t>
@@ -928,7 +960,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -946,7 +978,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Crepidium kabense
 Crepidium kandae
@@ -970,7 +1004,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -988,7 +1022,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Crepidium laciniosum
 Crepidium laeve
@@ -1022,7 +1058,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1040,7 +1076,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Crepidium maaikeae
 Crepidium maboroensis
@@ -1077,7 +1115,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1095,7 +1133,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Crepidium negrosianum
 Crepidium nemorale
@@ -1111,7 +1151,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1129,7 +1169,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Crepidium obovatum
 Crepidium ochyranum
@@ -1150,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1168,7 +1210,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Crepidium paguroides
 Crepidium palawense
@@ -1200,7 +1244,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1218,7 +1262,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Crepidium quadridens
 Crepidium quadridentatum
@@ -1232,7 +1278,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1250,7 +1296,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Crepidium raciborskii
 Crepidium rajanum
@@ -1277,7 +1325,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1295,7 +1343,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Crepidium saccatum
 Crepidium sagittatum
@@ -1329,7 +1379,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1347,7 +1397,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Crepidium taurinum
 Crepidium taylorii
@@ -1372,7 +1424,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1390,7 +1442,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Crepidium umbonatum
 Crepidium umbraticola
@@ -1405,7 +1459,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1423,7 +1477,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Crepidium van-royenii
 Crepidium variabile
@@ -1442,7 +1498,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1460,7 +1516,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Crepidium wappeanum
 Crepidium warapussae
@@ -1478,7 +1536,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1496,7 +1554,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Crepidium xanthochilum</t>
         </is>
@@ -1508,7 +1568,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1526,7 +1586,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Crepidium yamapense</t>
         </is>
@@ -1538,7 +1600,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Crepidium</t>
+          <t>Liste_des_espèces_du_genre_Crepidium</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1556,7 +1618,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Crepidium zippelii</t>
         </is>
